--- a/Colecciones/Summer Magic  Edgar (SUM).xlsx
+++ b/Colecciones/Summer Magic  Edgar (SUM).xlsx
@@ -437,7 +437,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Summer</t>
+          <t>Summer Magic  Edgar (SUM)</t>
         </is>
       </c>
     </row>
